--- a/contributors/v2.0.0/contributors-v2.0.0.xlsx
+++ b/contributors/v2.0.0/contributors-v2.0.0.xlsx
@@ -145,7 +145,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-09-23T12:05:54-07:00</t>
+    <t>2023-10-06T19:52:30-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/contributors/v2.0.0/contributors-v2.0.0.xlsx
+++ b/contributors/v2.0.0/contributors-v2.0.0.xlsx
@@ -145,7 +145,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-06T19:52:30-07:00</t>
+    <t>2023-11-02T15:45:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/contributors/v2.0.0/contributors-v2.0.0.xlsx
+++ b/contributors/v2.0.0/contributors-v2.0.0.xlsx
@@ -145,7 +145,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:45:03-07:00</t>
+    <t>2023-11-07T20:05:24-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
